--- a/local/modules/HookKonfigurator/import/Microsoft Excel Worksheet (neu).xlsx
+++ b/local/modules/HookKonfigurator/import/Microsoft Excel Worksheet (neu).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,525 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="montage" localSheetId="0">Sheet1!$A$1:$M$62</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="montage" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr sourceFile="C:\Development\programs\xampp\htdocs\heizfabrik\local\modules\HookKonfigurator\Import\montage.csv" decimal="," thousands="." tab="0" comma="1">
+      <textFields count="13">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="160">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>extra_quantity_price</t>
+  </si>
+  <si>
+    <t>constraints_values</t>
+  </si>
+  <si>
+    <t>constraints_names</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>Elektro-Design/Badheizkörper Montage</t>
+  </si>
+  <si>
+    <t>Elektro-Design/Badheizkörper montieren, Betriebsweise: Elektro, (Glykolgemisch)</t>
+  </si>
+  <si>
+    <t>Verlegung</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>with_dämmung</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>Anfahrtspauschale</t>
+  </si>
+  <si>
+    <t>Anfahrtspauschale: Einmalige Anrechnung je Montageauftrag (unabhängig von der Anzahl der Montagepositionen), inkl. An- und abfahrt zur Montage bis 30 km vom Markt</t>
+  </si>
+  <si>
+    <t>Montage</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>bauhöhe_min_cm</t>
+  </si>
+  <si>
+    <t>Stand-WC-Schüssel Montage</t>
+  </si>
+  <si>
+    <t>Wand-WC-Schüssel Montage</t>
+  </si>
+  <si>
+    <t>Aufputz Spülkasten oder Druckspüler montieren</t>
+  </si>
+  <si>
+    <t>spiegel_max_qm</t>
+  </si>
+  <si>
+    <t>Spiegel Montage</t>
+  </si>
+  <si>
+    <t>Spiegel Montage bis 0,8 qm Fläche montieren, mit/ohne Beleuchtung</t>
+  </si>
+  <si>
+    <t>breite_max_m</t>
+  </si>
+  <si>
+    <t>Spiegelschrank Montage</t>
+  </si>
+  <si>
+    <t>Spiegelschrank bis 1,2 m Breite montieren, mit/ohne Beleuchtung</t>
+  </si>
+  <si>
+    <t>Badmöbelschrank Montage</t>
+  </si>
+  <si>
+    <t>Badmöbelschrank montieren, (bereits vormontierter Korpus)</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>badaccessoires_max_piece</t>
+  </si>
+  <si>
+    <t>Bad-Accessoires Montage</t>
+  </si>
+  <si>
+    <t>Bad-Accesoires montieren (Set mit bis zu 5 Stück)</t>
+  </si>
+  <si>
+    <t>Einfachwaschtisch Montage</t>
+  </si>
+  <si>
+    <t>Einfachwaschtisch mit Armatur montieren</t>
+  </si>
+  <si>
+    <t>Doppelwaschtisch Montage</t>
+  </si>
+  <si>
+    <t>Doppelwaschtisch mit Armaturen montieren</t>
+  </si>
+  <si>
+    <t>Einloch- Armatur Montage</t>
+  </si>
+  <si>
+    <t>Einloch-Armatur auf Bestands-Waschtisch oder Spültisch montiern</t>
+  </si>
+  <si>
+    <t>Niederdruckspeicher Montage</t>
+  </si>
+  <si>
+    <t>Niederdruckspeicher oder Kleinstdurch-Lauferhitzer (230 V) montieren</t>
+  </si>
+  <si>
+    <t>with_brauseganitur</t>
+  </si>
+  <si>
+    <t>Aufputz-Wandbatterie Montage</t>
+  </si>
+  <si>
+    <t>Aufputz-Wandbatterie montieren, (ohne Brauseganitur)</t>
+  </si>
+  <si>
+    <t>Standventil oder Wand-Auslaufventil Montage</t>
+  </si>
+  <si>
+    <t>Standventil oder Wand-Auslaufventil Montage (Kaltwasseranschluss) montieren</t>
+  </si>
+  <si>
+    <t>Aufputz-Brausegarnitur Montage</t>
+  </si>
+  <si>
+    <t>Aufputz-Brausegarnitur montieren und an Bestands-Armatur anschließen</t>
+  </si>
+  <si>
+    <t>Sifon/Geruchsverschluß Montage</t>
+  </si>
+  <si>
+    <t>Sifon/Geruchsverschluß an Normwaschrtisch (1 1/4") montieren</t>
+  </si>
+  <si>
+    <t>Sifon/Geruchsverschluß Ab/- und Überlaufgarnitur an Normspültisch montieren</t>
+  </si>
+  <si>
+    <t>Komplettspüle Aufbau und Sifon/Ablaufgarn. Montage</t>
+  </si>
+  <si>
+    <t>Komplettspüle aufbauen und Sifon/Ablaufgarnitur montieren (ohne Armatur)</t>
+  </si>
+  <si>
+    <t>Montage/Anschluß</t>
+  </si>
+  <si>
+    <t>wärmeerzeuger_max_anschlusslänge</t>
+  </si>
+  <si>
+    <t>Miniküche Aufbau und Sifon/Ablaufgarn. Monatge</t>
+  </si>
+  <si>
+    <t>Miniküche (100x60cm) aufbauen und Sifon/Ablaufgarn. montieren (ohne Arm.)</t>
+  </si>
+  <si>
+    <t>Sanierung</t>
+  </si>
+  <si>
+    <t>kusto-Leitung_max_meter</t>
+  </si>
+  <si>
+    <t>Aufmaß-Paket</t>
+  </si>
+  <si>
+    <t>Aufmaß-Paket: An- und Abfahrt zum Aufmaß (im Umkreis von 40km vom Markt),Aufmaß und Baustellenbesichtigung; Datenermittlung und Aufmaßdokumentation</t>
+  </si>
+  <si>
+    <t>Demontage</t>
+  </si>
+  <si>
+    <t>with_entsorgung_;bestandsheizkörper_max_kilo</t>
+  </si>
+  <si>
+    <t>Montage und Anschluss neuer TW-Speicher</t>
+  </si>
+  <si>
+    <t>Montage und Anschluss neuer TW-Speicher mit Vorlauf/Rücklauf z. Wärmeerzeuger b. 1,5 lfm Anschlusslänge</t>
+  </si>
+  <si>
+    <t>Inbetriebnahme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anschluß/Einbindung </t>
+  </si>
+  <si>
+    <t>Anschluß/Einbindung weitere Heizkreis oder Bestands-TW-Speicher b. entleerter Anlage</t>
+  </si>
+  <si>
+    <t>Dämmung</t>
+  </si>
+  <si>
+    <t>Demontage bodenstehender Heizkessel</t>
+  </si>
+  <si>
+    <t>Demontage bodenstehender Heizkessel aus Stahl/Gußeisen &lt;= 20kW.</t>
+  </si>
+  <si>
+    <t>Entleerung</t>
+  </si>
+  <si>
+    <t>heizkörperanzahl_max_piece</t>
+  </si>
+  <si>
+    <t>Demontage Trinkwasserbereiter</t>
+  </si>
+  <si>
+    <t>Demontage Trinkwasserbereiter inkl. Entleerung und Entsorgung</t>
+  </si>
+  <si>
+    <t>fußbodenheizung_max_qm</t>
+  </si>
+  <si>
+    <t>Montage Heizungs-Ausdehnungsgefäß</t>
+  </si>
+  <si>
+    <t>Montage Heizungs-Ausdehnungsgefäß bis 110 Ltr. (ohne Anlage-Entleerung)</t>
+  </si>
+  <si>
+    <t>Montage Trinkwasser-Ausdehnungsgefäß</t>
+  </si>
+  <si>
+    <t>Montage Trinkwasser-Ausdehnungsgefäß inkl. Einbindung in die Kalt-TW-Leitung</t>
+  </si>
+  <si>
+    <t>Individuelle Zusatzleistungen</t>
+  </si>
+  <si>
+    <t>Montage zusätzlicher Reinigungs-oder Prüf-Öffnungen</t>
+  </si>
+  <si>
+    <t>Montage zusätzlicher Reinigungs-oder Prüf-Öffnungen im Abgasrohr zwischen Kesseel und Kaminanschluss</t>
+  </si>
+  <si>
+    <t>90;200</t>
+  </si>
+  <si>
+    <t>bauhöhe_max_cm;länge_max_cm</t>
+  </si>
+  <si>
+    <t>Entleerung Heizungsanlage</t>
+  </si>
+  <si>
+    <t>Entleerung Heizungsanlage mit bis zu 10 Heizkörpern</t>
+  </si>
+  <si>
+    <t>Aufbau/Montage</t>
+  </si>
+  <si>
+    <t>with_armatur</t>
+  </si>
+  <si>
+    <t>Entleerung Heizungsanlage mit bis zu 120qm Fußbodenheizung o. ausblasen</t>
+  </si>
+  <si>
+    <t>Befüllung Heizungsanlage</t>
+  </si>
+  <si>
+    <t>Befüllung Heizungsanlage mit bis zu 10 Heizkörpern</t>
+  </si>
+  <si>
+    <t>power_max_kw</t>
+  </si>
+  <si>
+    <t>Befüllung Heizungsanlage mit bis zu 120 mq Fußbodenheizung inkl. Spülen</t>
+  </si>
+  <si>
+    <t>Gasheizgerät Montage</t>
+  </si>
+  <si>
+    <t>Wand-Montage Gasheizgerät bis 25kW, ohne TW-Bereitung, konv./Brennw.</t>
+  </si>
+  <si>
+    <t>Aufmaß</t>
+  </si>
+  <si>
+    <t>Wand-Montage Gasheizgerät</t>
+  </si>
+  <si>
+    <t>Wand-Montage Gasheizgerät bis 25kW, Anschluß an TW-Speicher, Brennw.</t>
+  </si>
+  <si>
+    <t>Wand-Montage Gasheizgerät bis 25kW, mit Trinkwasserbereitung,konv.</t>
+  </si>
+  <si>
+    <t>Befüllung</t>
+  </si>
+  <si>
+    <t>Gasheizgerät Demontage</t>
+  </si>
+  <si>
+    <t>Demontage wandhängendes Gasheizgerät</t>
+  </si>
+  <si>
+    <t>fußbodenheizung_max_qm;with_spülen</t>
+  </si>
+  <si>
+    <t>Schornsteinsanierung</t>
+  </si>
+  <si>
+    <t>Schornsteinsanierung für Brennwert-Anlagen, Kusto Leistung bis max. 12m</t>
+  </si>
+  <si>
+    <t>Verlegung Wärme-/TW-Verteilungsleitung</t>
+  </si>
+  <si>
+    <t>Verlegung Wärme-/TW-Verteilungsleitung mit Dämmung</t>
+  </si>
+  <si>
+    <t>Lieferung</t>
+  </si>
+  <si>
+    <t>Wärmedämmung vorhandener Wärme-/TW-Verteilungsleitung</t>
+  </si>
+  <si>
+    <t>90;100</t>
+  </si>
+  <si>
+    <t>Besondere Arbeiten / Zusatzleistungen</t>
+  </si>
+  <si>
+    <t>Beim Aufmaß festgestellte Leistungen, die keinen Festpreis unterliegen</t>
+  </si>
+  <si>
+    <t>power_max_kw;with_tw-bereitung</t>
+  </si>
+  <si>
+    <t>Kleinteile/Zusatzartikel, Deponiekosten, Entsogung, Gebühren</t>
+  </si>
+  <si>
+    <t>Pauschal nach Aufmaß</t>
+  </si>
+  <si>
+    <t>power_max_kw;with_trinkwasserbereitung</t>
+  </si>
+  <si>
+    <t>Lieferpauschale</t>
+  </si>
+  <si>
+    <t>Demontage Bestandsheizkörper</t>
+  </si>
+  <si>
+    <t>Demontage Bestandsheizkörper, ohne Entsorgung &lt;= 30kg/Stück</t>
+  </si>
+  <si>
+    <t>with_einbindung</t>
+  </si>
+  <si>
+    <t>Heizkörpermontage</t>
+  </si>
+  <si>
+    <t>Montage Heizkörper Bauhöhe max. 90cm, Länge max. 100cm</t>
+  </si>
+  <si>
+    <t>Anfahrt</t>
+  </si>
+  <si>
+    <t>Montage Heizkörper Bauhöhe max. 90cm, Länge max.200cm</t>
+  </si>
+  <si>
+    <t>Anschluß/Einbindung</t>
+  </si>
+  <si>
+    <t>with-anlagen-entleerung</t>
+  </si>
+  <si>
+    <t>Montage Heizkörper Übergröße</t>
+  </si>
+  <si>
+    <t>Montage Heizkörper Übergröße &gt; 200cm oder dekoativer Badheizkörper</t>
+  </si>
+  <si>
+    <t>Entleerung Heizungsanlage neu</t>
+  </si>
+  <si>
+    <t>Für Neuanalgen bis zu 14 Heizkörpern</t>
+  </si>
+  <si>
+    <t>capacity_max_l;with-anlagen-entleerung</t>
+  </si>
+  <si>
+    <t>Entleerung Heizungsanalge alt</t>
+  </si>
+  <si>
+    <t>Für Altanlagen bis zu 14 Heizkörpern</t>
+  </si>
+  <si>
+    <t>power_max_kw;with_anschluß_trinkwasserspeicher</t>
+  </si>
+  <si>
+    <t>An und Abfahrt</t>
+  </si>
+  <si>
+    <t>Thermenwartung</t>
+  </si>
+  <si>
+    <t>Planung</t>
+  </si>
+  <si>
+    <t>Reparatur</t>
+  </si>
+  <si>
+    <t>Hydraulischer Abgleich</t>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>Individuelle Heizungsplanung</t>
+  </si>
+  <si>
+    <t>Individuelle Fussbodenheizungsplanung</t>
+  </si>
+  <si>
+    <t>Anfahrt bis 40km Umkreis v. Markt, Mehrkilometer (Entfernung über 40km Umkreis v. Markt nach Straßenkilometer je Hin-u. Rückfahrt)</t>
+  </si>
+  <si>
+    <t>Inbetriebnahme Gasheizgerät wandhängend</t>
+  </si>
+  <si>
+    <t>Inbetriebnahme Gasheizgerät wandhängend gültig f.7995623/4/5. Für Geräte von Rotheigner u. Strebel erfolgt Inbetriebnahme entspr. Herstellerangaben</t>
+  </si>
+  <si>
+    <t>with_anlagen_entleerung;with_entsorgung</t>
+  </si>
+  <si>
+    <t>0;30</t>
+  </si>
+  <si>
+    <t>25;0</t>
+  </si>
+  <si>
+    <t>110;0</t>
+  </si>
+  <si>
+    <t>120;1</t>
+  </si>
+  <si>
+    <t>25;1</t>
+  </si>
+  <si>
+    <t>1;1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,15 +556,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="montage" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -98,7 +623,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +658,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +866,2780 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5184968</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7846526</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1">
+        <v>189</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1">
+        <v>200</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7846527</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1">
+        <v>87</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7846528</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7846529</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1">
+        <v>39.5</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7846530</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1">
+        <v>61</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7846531</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1">
+        <v>52</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7846532</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1">
+        <v>49</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7846533</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1">
+        <v>73</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7846534</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1">
+        <v>96</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7846535</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1">
+        <v>42</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7846536</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1">
+        <v>48</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7846537</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="1">
+        <v>49</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7846538</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1">
+        <v>35</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7846539</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7846540</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7846541</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1">
+        <v>49</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7846542</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="1">
+        <v>78</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7846543</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="1">
+        <v>287</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="K20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7846544</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="1">
+        <v>364</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="1">
+        <v>12</v>
+      </c>
+      <c r="K21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7995108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="1">
+        <v>27</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7995611</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="1">
+        <v>349</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7995612</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7995613</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="1">
+        <v>91</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="1">
+        <v>10</v>
+      </c>
+      <c r="K25" t="s">
+        <v>79</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7995614</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="1">
+        <v>63</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="1">
+        <v>120</v>
+      </c>
+      <c r="K26" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7995616</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="1">
+        <v>119</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7995617</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7995618</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="1">
+        <v>157</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K29" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7995619</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="1">
+        <v>93</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>95</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7995620</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="1">
+        <v>104</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7995621</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="1">
+        <v>204</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="1">
+        <v>20</v>
+      </c>
+      <c r="K32" t="s">
+        <v>99</v>
+      </c>
+      <c r="L32" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7995622</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7995623</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="1">
+        <v>49</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7995624</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="1">
+        <v>319</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="1">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s">
+        <v>79</v>
+      </c>
+      <c r="L35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7995625</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="1">
+        <v>86</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="1">
+        <v>10</v>
+      </c>
+      <c r="K36" t="s">
+        <v>79</v>
+      </c>
+      <c r="L36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7995626</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="1">
+        <v>299</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K37" t="s">
+        <v>110</v>
+      </c>
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7995628</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="1">
+        <v>692</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="1">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s">
+        <v>79</v>
+      </c>
+      <c r="L38" t="s">
+        <v>19</v>
+      </c>
+      <c r="M38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7995629</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F39" s="1">
+        <v>49</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7995630</v>
+      </c>
+      <c r="C40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="1">
+        <v>104</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K40" t="s">
+        <v>91</v>
+      </c>
+      <c r="L40" t="s">
+        <v>19</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7995662</v>
+      </c>
+      <c r="C41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="1">
+        <v>357</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K41" t="s">
+        <v>120</v>
+      </c>
+      <c r="L41" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7995663</v>
+      </c>
+      <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="1">
+        <v>475</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K42" t="s">
+        <v>123</v>
+      </c>
+      <c r="L42" t="s">
+        <v>19</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>8593184</v>
+      </c>
+      <c r="C43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="1">
+        <v>65</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>8637664</v>
+      </c>
+      <c r="C44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="1">
+        <v>72</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>127</v>
+      </c>
+      <c r="L44" t="s">
+        <v>19</v>
+      </c>
+      <c r="M44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>8637665</v>
+      </c>
+      <c r="C45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="1">
+        <v>49</v>
+      </c>
+      <c r="G45">
+        <v>30</v>
+      </c>
+      <c r="H45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>8637666</v>
+      </c>
+      <c r="C46" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="1">
+        <v>115</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>133</v>
+      </c>
+      <c r="L46" t="s">
+        <v>19</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>8637667</v>
+      </c>
+      <c r="C47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="1">
+        <v>55</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" t="s">
+        <v>19</v>
+      </c>
+      <c r="M47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>8637668</v>
+      </c>
+      <c r="C48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="1">
+        <v>93</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K48" t="s">
+        <v>138</v>
+      </c>
+      <c r="L48" t="s">
+        <v>19</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>8637669</v>
+      </c>
+      <c r="C49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="1">
+        <v>475</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K49" t="s">
+        <v>141</v>
+      </c>
+      <c r="L49" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>18834816</v>
+      </c>
+      <c r="C50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" s="1">
+        <v>49</v>
+      </c>
+      <c r="G50">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>18834817</v>
+      </c>
+      <c r="C51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" s="1">
+        <v>49</v>
+      </c>
+      <c r="G51">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" t="s">
+        <v>19</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>18834818</v>
+      </c>
+      <c r="C52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52" t="s">
+        <v>144</v>
+      </c>
+      <c r="F52" s="1">
+        <v>49</v>
+      </c>
+      <c r="G52">
+        <v>40</v>
+      </c>
+      <c r="H52" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" t="s">
+        <v>19</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>18834819</v>
+      </c>
+      <c r="C53" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" s="1">
+        <v>49</v>
+      </c>
+      <c r="G53">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>18834820</v>
+      </c>
+      <c r="C54" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" t="s">
+        <v>144</v>
+      </c>
+      <c r="F54" s="1">
+        <v>49</v>
+      </c>
+      <c r="G54">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" t="s">
+        <v>19</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>18834821</v>
+      </c>
+      <c r="C55" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55" t="s">
+        <v>144</v>
+      </c>
+      <c r="F55" s="1">
+        <v>49</v>
+      </c>
+      <c r="G55">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" t="s">
+        <v>19</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>18834822</v>
+      </c>
+      <c r="C56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56" s="1">
+        <v>49</v>
+      </c>
+      <c r="G56">
+        <v>40</v>
+      </c>
+      <c r="H56" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" t="s">
+        <v>19</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>18834823</v>
+      </c>
+      <c r="C57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" t="s">
+        <v>144</v>
+      </c>
+      <c r="F57" s="1">
+        <v>49</v>
+      </c>
+      <c r="G57">
+        <v>40</v>
+      </c>
+      <c r="H57" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" t="s">
+        <v>19</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>18834824</v>
+      </c>
+      <c r="C58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" s="1">
+        <v>49</v>
+      </c>
+      <c r="G58">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" t="s">
+        <v>19</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>18834825</v>
+      </c>
+      <c r="C59" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F59" s="1">
+        <v>49</v>
+      </c>
+      <c r="G59">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" t="s">
+        <v>19</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>18834826</v>
+      </c>
+      <c r="C60" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" t="s">
+        <v>144</v>
+      </c>
+      <c r="F60" s="1">
+        <v>49</v>
+      </c>
+      <c r="G60">
+        <v>40</v>
+      </c>
+      <c r="H60" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" t="s">
+        <v>19</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>8834815</v>
+      </c>
+      <c r="C61" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" t="s">
+        <v>150</v>
+      </c>
+      <c r="E61" t="s">
+        <v>130</v>
+      </c>
+      <c r="F61" s="1">
+        <v>49</v>
+      </c>
+      <c r="G61">
+        <v>40</v>
+      </c>
+      <c r="H61" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" t="s">
+        <v>19</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>8834818</v>
+      </c>
+      <c r="C62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" t="s">
+        <v>152</v>
+      </c>
+      <c r="E62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" s="1">
+        <v>132</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K62" t="s">
+        <v>153</v>
+      </c>
+      <c r="L62" t="s">
+        <v>19</v>
+      </c>
+      <c r="M62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F131" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>